--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/8.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/8.xlsx
@@ -479,13 +479,13 @@
         <v>-17.98235369154056</v>
       </c>
       <c r="E2" t="n">
-        <v>-9.313487278660608</v>
+        <v>-9.087985454514717</v>
       </c>
       <c r="F2" t="n">
-        <v>-2.918394847985408</v>
+        <v>-2.906441575490912</v>
       </c>
       <c r="G2" t="n">
-        <v>-5.943842742468519</v>
+        <v>-5.646830760201121</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-17.57136588288307</v>
       </c>
       <c r="E3" t="n">
-        <v>-9.595246728117393</v>
+        <v>-9.366707489712223</v>
       </c>
       <c r="F3" t="n">
-        <v>-2.906376113976703</v>
+        <v>-2.919979016629257</v>
       </c>
       <c r="G3" t="n">
-        <v>-5.891827023278341</v>
+        <v>-5.583634214384109</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-17.06080832090525</v>
       </c>
       <c r="E4" t="n">
-        <v>-10.42334797515941</v>
+        <v>-10.19238666072852</v>
       </c>
       <c r="F4" t="n">
-        <v>-2.748208003345811</v>
+        <v>-2.778451222910198</v>
       </c>
       <c r="G4" t="n">
-        <v>-5.768707007354749</v>
+        <v>-5.456180646219906</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-16.53482275188536</v>
       </c>
       <c r="E5" t="n">
-        <v>-11.17059115985093</v>
+        <v>-10.95249957911345</v>
       </c>
       <c r="F5" t="n">
-        <v>-2.688912963775634</v>
+        <v>-2.710436709647432</v>
       </c>
       <c r="G5" t="n">
-        <v>-5.999118445066286</v>
+        <v>-5.682612023867558</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-16.0270653854275</v>
       </c>
       <c r="E6" t="n">
-        <v>-11.99575973105639</v>
+        <v>-11.76043867977921</v>
       </c>
       <c r="F6" t="n">
-        <v>-2.518359534656468</v>
+        <v>-2.549872707596503</v>
       </c>
       <c r="G6" t="n">
-        <v>-5.525412743646953</v>
+        <v>-5.221501117781966</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-15.57668167293671</v>
       </c>
       <c r="E7" t="n">
-        <v>-12.68631324444324</v>
+        <v>-12.44949967064209</v>
       </c>
       <c r="F7" t="n">
-        <v>-2.480260933387045</v>
+        <v>-2.526646962355281</v>
       </c>
       <c r="G7" t="n">
-        <v>-5.616103125431589</v>
+        <v>-5.318894758621567</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-15.20100446860202</v>
       </c>
       <c r="E8" t="n">
-        <v>-13.23820617843336</v>
+        <v>-12.98284081150549</v>
       </c>
       <c r="F8" t="n">
-        <v>-2.373885972798021</v>
+        <v>-2.409575590344566</v>
       </c>
       <c r="G8" t="n">
-        <v>-5.136702272276106</v>
+        <v>-4.855977114743816</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-14.90903592503863</v>
       </c>
       <c r="E9" t="n">
-        <v>-14.22298301358231</v>
+        <v>-13.9551799589548</v>
       </c>
       <c r="F9" t="n">
-        <v>-2.150793132375009</v>
+        <v>-2.168284448971555</v>
       </c>
       <c r="G9" t="n">
-        <v>-4.971569056533416</v>
+        <v>-4.724451840395836</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-14.69528999108066</v>
       </c>
       <c r="E10" t="n">
-        <v>-14.98804482244141</v>
+        <v>-14.72093565986452</v>
       </c>
       <c r="F10" t="n">
-        <v>-2.128549309846916</v>
+        <v>-2.151081163037527</v>
       </c>
       <c r="G10" t="n">
-        <v>-4.571651573930051</v>
+        <v>-4.321392205110457</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-14.54305724191169</v>
       </c>
       <c r="E11" t="n">
-        <v>-15.66233769569883</v>
+        <v>-15.38877402782096</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.936786350124154</v>
+        <v>-1.972711629121851</v>
       </c>
       <c r="G11" t="n">
-        <v>-4.334563061769233</v>
+        <v>-4.095707088724783</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-14.43013810669646</v>
       </c>
       <c r="E12" t="n">
-        <v>-16.31874648327445</v>
+        <v>-16.04287857009644</v>
       </c>
       <c r="F12" t="n">
-        <v>-2.002064572093001</v>
+        <v>-2.013219214114151</v>
       </c>
       <c r="G12" t="n">
-        <v>-3.810281794472313</v>
+        <v>-3.580106018211927</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-14.32456668208301</v>
       </c>
       <c r="E13" t="n">
-        <v>-17.29077141545556</v>
+        <v>-17.01038665779715</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.801909446248693</v>
+        <v>-1.818248640195167</v>
       </c>
       <c r="G13" t="n">
-        <v>-3.163508941788204</v>
+        <v>-2.939316347926487</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-14.20109997647747</v>
       </c>
       <c r="E14" t="n">
-        <v>-17.89160337746805</v>
+        <v>-17.62187575432281</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.540704912253416</v>
+        <v>-1.560880150932516</v>
       </c>
       <c r="G14" t="n">
-        <v>-2.835376555666023</v>
+        <v>-2.587211955301106</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-14.03766869197674</v>
       </c>
       <c r="E15" t="n">
-        <v>-18.8012958558197</v>
+        <v>-18.52347718951828</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.399910287493494</v>
+        <v>-1.418789388191263</v>
       </c>
       <c r="G15" t="n">
-        <v>-2.259563984384069</v>
+        <v>-2.016636305155842</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-13.82335711397064</v>
       </c>
       <c r="E16" t="n">
-        <v>-19.70042284577809</v>
+        <v>-19.41732798143144</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.234345025757026</v>
+        <v>-1.257178001912996</v>
       </c>
       <c r="G16" t="n">
-        <v>-1.852262442977971</v>
+        <v>-1.608418302550823</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-13.56243918565052</v>
       </c>
       <c r="E17" t="n">
-        <v>-20.50134447212067</v>
+        <v>-20.21402079395616</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.026753471898617</v>
+        <v>-1.036546514424228</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.346205661236733</v>
+        <v>-1.099638321818506</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-13.26247730618149</v>
       </c>
       <c r="E18" t="n">
-        <v>-21.45569479546545</v>
+        <v>-21.17106813168633</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.9430674721343042</v>
+        <v>-0.9547981754804907</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.976295736746605</v>
+        <v>-0.7326872577706081</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-12.93596385535977</v>
       </c>
       <c r="E19" t="n">
-        <v>-22.29129793203578</v>
+        <v>-22.00638323759414</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.8235085625836618</v>
+        <v>-0.8169755034656405</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.6126177484091383</v>
+        <v>-0.3620572566241848</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-12.5919605419512</v>
       </c>
       <c r="E20" t="n">
-        <v>-22.95201408724633</v>
+        <v>-22.65382379772318</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.5912118332629162</v>
+        <v>-0.5751083007675931</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.2565987572340813</v>
+        <v>0.004068992344684727</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-12.24148573594496</v>
       </c>
       <c r="E21" t="n">
-        <v>-23.57164659613954</v>
+        <v>-23.27510593677444</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.3093607376862373</v>
+        <v>-0.2858731463881808</v>
       </c>
       <c r="G21" t="n">
-        <v>0.09647446580158732</v>
+        <v>0.3514077867356773</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-11.89375488041355</v>
       </c>
       <c r="E22" t="n">
-        <v>-24.2297311984789</v>
+        <v>-23.92344986579956</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.1251651290059933</v>
+        <v>-0.08050728401286568</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2117521923229853</v>
+        <v>0.4168562086414659</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-11.561643429418</v>
       </c>
       <c r="E23" t="n">
-        <v>-24.67193681926104</v>
+        <v>-24.38538558696418</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.05243738672020498</v>
+        <v>0.007499175689216957</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4423469222743066</v>
+        <v>0.6656623318456282</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-11.25575380670406</v>
       </c>
       <c r="E24" t="n">
-        <v>-25.06752074962379</v>
+        <v>-24.76512783088845</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.08853286565484375</v>
+        <v>-0.0214609981966811</v>
       </c>
       <c r="G24" t="n">
-        <v>0.4459080286472561</v>
+        <v>0.6409309717776076</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-10.98045317502308</v>
       </c>
       <c r="E25" t="n">
-        <v>-25.3397490026118</v>
+        <v>-25.04587917302642</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2072615324482733</v>
+        <v>0.2706151858993858</v>
       </c>
       <c r="G25" t="n">
-        <v>0.4278406507256741</v>
+        <v>0.6161079655896949</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-10.73814191565498</v>
       </c>
       <c r="E26" t="n">
-        <v>-25.34422657018368</v>
+        <v>-25.05097207883185</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1986337048755758</v>
+        <v>0.2723040929659684</v>
       </c>
       <c r="G26" t="n">
-        <v>0.2875042565652124</v>
+        <v>0.4759024944576505</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-10.52289984088321</v>
       </c>
       <c r="E27" t="n">
-        <v>-25.31232062815839</v>
+        <v>-25.00816024853941</v>
       </c>
       <c r="F27" t="n">
-        <v>0.001411254867814336</v>
+        <v>0.07749062668108452</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2908297014870108</v>
+        <v>0.4660963596291977</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-10.3307704062013</v>
       </c>
       <c r="E28" t="n">
-        <v>-25.38553278564932</v>
+        <v>-25.09119163316164</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1762720516219077</v>
+        <v>0.2367584907506821</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0005340705774186892</v>
+        <v>0.1685083160367641</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-10.15419911287641</v>
       </c>
       <c r="E29" t="n">
-        <v>-25.44891262370611</v>
+        <v>-25.14138752225681</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1282363924956147</v>
+        <v>0.2008855809643527</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.08258896016470012</v>
+        <v>0.07192639797335094</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-9.986974055728556</v>
       </c>
       <c r="E30" t="n">
-        <v>-25.22782290561789</v>
+        <v>-24.92959333918621</v>
       </c>
       <c r="F30" t="n">
-        <v>0.00482834590950484</v>
+        <v>0.06260467835004198</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.2567951417767072</v>
+        <v>-0.1104231960062097</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-9.824438211118485</v>
       </c>
       <c r="E31" t="n">
-        <v>-24.76491835404298</v>
+        <v>-24.46183154325702</v>
       </c>
       <c r="F31" t="n">
-        <v>0.003807146287850206</v>
+        <v>0.06598249248320731</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.7675258756324411</v>
+        <v>-0.6127879483460807</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-9.663576333423325</v>
       </c>
       <c r="E32" t="n">
-        <v>-24.8197096414356</v>
+        <v>-24.5098017408691</v>
       </c>
       <c r="F32" t="n">
-        <v>0.06175367866532978</v>
+        <v>0.1187444729353634</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.9044059018426871</v>
+        <v>-0.7377277943646726</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-9.503972449674352</v>
       </c>
       <c r="E33" t="n">
-        <v>-24.41828654400544</v>
+        <v>-24.11411307208362</v>
       </c>
       <c r="F33" t="n">
-        <v>0.007420621872166601</v>
+        <v>0.05499805039899913</v>
       </c>
       <c r="G33" t="n">
-        <v>-1.412976405729536</v>
+        <v>-1.243666745380335</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-9.344258557430015</v>
       </c>
       <c r="E34" t="n">
-        <v>-23.81004433858453</v>
+        <v>-23.52163399928414</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.0761999163779378</v>
+        <v>-0.05280397119977331</v>
       </c>
       <c r="G34" t="n">
-        <v>-1.472219076088347</v>
+        <v>-1.314365180725656</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-9.186441340036023</v>
       </c>
       <c r="E35" t="n">
-        <v>-23.45126287150987</v>
+        <v>-23.16134691738269</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.2639173545226062</v>
+        <v>-0.2460463611436501</v>
       </c>
       <c r="G35" t="n">
-        <v>-1.58245626601568</v>
+        <v>-1.400630364149789</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-9.030199403842092</v>
       </c>
       <c r="E36" t="n">
-        <v>-22.69565370530249</v>
+        <v>-22.42016546890689</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.374665144260767</v>
+        <v>-0.3590722115762712</v>
       </c>
       <c r="G36" t="n">
-        <v>-1.760459215451788</v>
+        <v>-1.587418248792694</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-8.880469133889109</v>
       </c>
       <c r="E37" t="n">
-        <v>-21.90418472161162</v>
+        <v>-21.62313225650829</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.3139561359836832</v>
+        <v>-0.2993582183151586</v>
       </c>
       <c r="G37" t="n">
-        <v>-1.910706482863436</v>
+        <v>-1.723421090712545</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-8.739304966442001</v>
       </c>
       <c r="E38" t="n">
-        <v>-21.51518621957826</v>
+        <v>-21.24412318154316</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.3871813857774571</v>
+        <v>-0.3770217587722777</v>
       </c>
       <c r="G38" t="n">
-        <v>-2.178169137617058</v>
+        <v>-1.983342579029332</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-8.607145776776537</v>
       </c>
       <c r="E39" t="n">
-        <v>-20.86697321358156</v>
+        <v>-20.59136714646039</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.2798245024753033</v>
+        <v>-0.2442134387458084</v>
       </c>
       <c r="G39" t="n">
-        <v>-2.357769347999856</v>
+        <v>-2.15406620808544</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-8.485480538740642</v>
       </c>
       <c r="E40" t="n">
-        <v>-20.49601590486409</v>
+        <v>-20.23807135427641</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.5013462665573084</v>
+        <v>-0.4892358864287118</v>
       </c>
       <c r="G40" t="n">
-        <v>-2.577222528232868</v>
+        <v>-2.372275619548489</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-8.372569561284321</v>
       </c>
       <c r="E41" t="n">
-        <v>-19.91912976474912</v>
+        <v>-19.68467280545949</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.2573842954045849</v>
+        <v>-0.225687830224766</v>
       </c>
       <c r="G41" t="n">
-        <v>-2.466448553889024</v>
+        <v>-2.239388745704969</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-8.267763367063109</v>
       </c>
       <c r="E42" t="n">
-        <v>-19.36607161580609</v>
+        <v>-19.11721312339056</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.0222596286700264</v>
+        <v>0.009672497960943485</v>
       </c>
       <c r="G42" t="n">
-        <v>-2.541729295228949</v>
+        <v>-2.292451849122485</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-8.167842005368769</v>
       </c>
       <c r="E43" t="n">
-        <v>-18.46416905764526</v>
+        <v>-18.22099262466304</v>
       </c>
       <c r="F43" t="n">
-        <v>0.004841438212346566</v>
+        <v>0.02781842969957582</v>
       </c>
       <c r="G43" t="n">
-        <v>-2.481832009728052</v>
+        <v>-2.213112493901625</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-8.070267179065663</v>
       </c>
       <c r="E44" t="n">
-        <v>-18.12947742779937</v>
+        <v>-17.88383964188291</v>
       </c>
       <c r="F44" t="n">
-        <v>0.03856721033263292</v>
+        <v>0.05946252566802773</v>
       </c>
       <c r="G44" t="n">
-        <v>-2.690130547939914</v>
+        <v>-2.410295667000861</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-7.970763178045122</v>
       </c>
       <c r="E45" t="n">
-        <v>-17.57178460365037</v>
+        <v>-17.33533761432879</v>
       </c>
       <c r="F45" t="n">
-        <v>0.01668997228410866</v>
+        <v>0.03431221190907194</v>
       </c>
       <c r="G45" t="n">
-        <v>-2.75343183217966</v>
+        <v>-2.470310783227334</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-7.868529540672819</v>
       </c>
       <c r="E46" t="n">
-        <v>-17.11847671005845</v>
+        <v>-16.89671928452529</v>
       </c>
       <c r="F46" t="n">
-        <v>0.08765025368626395</v>
+        <v>0.09241585192065224</v>
       </c>
       <c r="G46" t="n">
-        <v>-2.636556844711571</v>
+        <v>-2.376321141126582</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-7.76392951106309</v>
       </c>
       <c r="E47" t="n">
-        <v>-16.46862716620653</v>
+        <v>-16.25929433607017</v>
       </c>
       <c r="F47" t="n">
-        <v>0.05897811046288386</v>
+        <v>0.08749314605216324</v>
       </c>
       <c r="G47" t="n">
-        <v>-2.987613853109614</v>
+        <v>-2.712937339490201</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-7.658235365056664</v>
       </c>
       <c r="E48" t="n">
-        <v>-15.81232311705364</v>
+        <v>-15.60094788767397</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08877619173065239</v>
+        <v>0.09623880435043625</v>
       </c>
       <c r="G48" t="n">
-        <v>-2.888937166591524</v>
+        <v>-2.626187740860924</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-7.55682012383286</v>
       </c>
       <c r="E49" t="n">
-        <v>-15.2141096156095</v>
+        <v>-15.02628743904209</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1841012487212599</v>
+        <v>0.2046037949714029</v>
       </c>
       <c r="G49" t="n">
-        <v>-3.152877991880722</v>
+        <v>-2.865174636933792</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-7.463217300770471</v>
       </c>
       <c r="E50" t="n">
-        <v>-14.5349594979978</v>
+        <v>-14.34899642843392</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2978995450215429</v>
+        <v>0.337608499540498</v>
       </c>
       <c r="G50" t="n">
-        <v>-3.118144112441623</v>
+        <v>-2.82913152721052</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-7.381919374632339</v>
       </c>
       <c r="E51" t="n">
-        <v>-13.71980653846625</v>
+        <v>-13.54508975704342</v>
       </c>
       <c r="F51" t="n">
-        <v>0.3091982023739525</v>
+        <v>0.3380274532314333</v>
       </c>
       <c r="G51" t="n">
-        <v>-3.240007267292409</v>
+        <v>-2.925320676188681</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-7.309613860032584</v>
       </c>
       <c r="E52" t="n">
-        <v>-13.12110862181696</v>
+        <v>-12.93962311982495</v>
       </c>
       <c r="F52" t="n">
-        <v>0.3835101133035896</v>
+        <v>0.4176417468119695</v>
       </c>
       <c r="G52" t="n">
-        <v>-3.203388096244101</v>
+        <v>-2.904765760727171</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-7.240804397879577</v>
       </c>
       <c r="E53" t="n">
-        <v>-12.47804089083706</v>
+        <v>-12.30519630872059</v>
       </c>
       <c r="F53" t="n">
-        <v>0.4447035367858173</v>
+        <v>0.4734804184319312</v>
       </c>
       <c r="G53" t="n">
-        <v>-3.253675631459171</v>
+        <v>-2.947643052533824</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-7.174243102532827</v>
       </c>
       <c r="E54" t="n">
-        <v>-12.09870450830089</v>
+        <v>-11.92574209545884</v>
       </c>
       <c r="F54" t="n">
-        <v>0.3413136212447065</v>
+        <v>0.3734683170239858</v>
       </c>
       <c r="G54" t="n">
-        <v>-3.404551329407222</v>
+        <v>-3.076183281833891</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-7.112928345799506</v>
       </c>
       <c r="E55" t="n">
-        <v>-11.57137273444184</v>
+        <v>-11.42104691321314</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1297420073224133</v>
+        <v>0.1398361728133841</v>
       </c>
       <c r="G55" t="n">
-        <v>-3.859443391642995</v>
+        <v>-3.547925137826964</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-7.061094017816608</v>
       </c>
       <c r="E56" t="n">
-        <v>-11.15735484167794</v>
+        <v>-11.00967366562327</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1607445804516206</v>
+        <v>0.194706014023058</v>
       </c>
       <c r="G56" t="n">
-        <v>-3.958512847246336</v>
+        <v>-3.635617382260846</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-7.02019159315024</v>
       </c>
       <c r="E57" t="n">
-        <v>-10.39584104688894</v>
+        <v>-10.24530574881478</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1172257658057231</v>
+        <v>0.1514228608283116</v>
       </c>
       <c r="G57" t="n">
-        <v>-4.349972702213945</v>
+        <v>-4.012453134954247</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-6.994018432798651</v>
       </c>
       <c r="E58" t="n">
-        <v>-10.1176427038051</v>
+        <v>-9.954578071911408</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.04713500406930592</v>
+        <v>-0.01660375384240073</v>
       </c>
       <c r="G58" t="n">
-        <v>-4.371339340451642</v>
+        <v>-4.034330373002772</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-6.984172336676416</v>
       </c>
       <c r="E59" t="n">
-        <v>-9.519835063749051</v>
+        <v>-9.371014857347152</v>
       </c>
       <c r="F59" t="n">
-        <v>0.01471303455500802</v>
+        <v>0.05168569778004244</v>
       </c>
       <c r="G59" t="n">
-        <v>-4.662538340257314</v>
+        <v>-4.32209918946391</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-6.994852858341889</v>
       </c>
       <c r="E60" t="n">
-        <v>-9.18698944860385</v>
+        <v>-9.037763380813855</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.09962204616178573</v>
+        <v>-0.0702298262821107</v>
       </c>
       <c r="G60" t="n">
-        <v>-4.567383483203648</v>
+        <v>-4.236776651844382</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-7.027081457245517</v>
       </c>
       <c r="E61" t="n">
-        <v>-8.643383942312541</v>
+        <v>-8.497692796289813</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.1242748524127559</v>
+        <v>-0.09538014004106649</v>
       </c>
       <c r="G61" t="n">
-        <v>-4.949979849147409</v>
+        <v>-4.628576906685876</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-7.079032751716055</v>
       </c>
       <c r="E62" t="n">
-        <v>-8.160788567263676</v>
+        <v>-8.012766991335122</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.08696178931383662</v>
+        <v>-0.05746483101142779</v>
       </c>
       <c r="G62" t="n">
-        <v>-4.960047830032696</v>
+        <v>-4.621232124791668</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-7.148646362293729</v>
       </c>
       <c r="E63" t="n">
-        <v>-7.71033479569125</v>
+        <v>-7.551250223861437</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.09359958685459174</v>
+        <v>-0.06949665732297405</v>
       </c>
       <c r="G63" t="n">
-        <v>-4.93906086857741</v>
+        <v>-4.60896463702897</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-7.230426226155314</v>
       </c>
       <c r="E64" t="n">
-        <v>-7.369175568241552</v>
+        <v>-7.217802362785515</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.2537708198202684</v>
+        <v>-0.2319590432859528</v>
       </c>
       <c r="G64" t="n">
-        <v>-5.131321335808157</v>
+        <v>-4.811869146470041</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-7.318271795333344</v>
       </c>
       <c r="E65" t="n">
-        <v>-7.000902181606639</v>
+        <v>-6.840364364161394</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.2012575931221052</v>
+        <v>-0.1826010615726456</v>
       </c>
       <c r="G65" t="n">
-        <v>-5.385416749360377</v>
+        <v>-5.073126049676684</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-7.402704093308902</v>
       </c>
       <c r="E66" t="n">
-        <v>-6.752829227361614</v>
+        <v>-6.592121209979426</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.3121101212829998</v>
+        <v>-0.288203576294008</v>
       </c>
       <c r="G66" t="n">
-        <v>-5.355998344875018</v>
+        <v>-5.046797428661973</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-7.475945594666226</v>
       </c>
       <c r="E67" t="n">
-        <v>-6.597633069475793</v>
+        <v>-6.440106481684145</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.3946178137915575</v>
+        <v>-0.3657100091170263</v>
       </c>
       <c r="G67" t="n">
-        <v>-5.442027866848</v>
+        <v>-5.137330702812509</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-7.531598843897258</v>
       </c>
       <c r="E68" t="n">
-        <v>-6.32773524639361</v>
+        <v>-6.16723670585689</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.3476164465897609</v>
+        <v>-0.3219031638086109</v>
       </c>
       <c r="G68" t="n">
-        <v>-5.437288453219296</v>
+        <v>-5.141546424327545</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-7.570814615114952</v>
       </c>
       <c r="E69" t="n">
-        <v>-6.198592771162824</v>
+        <v>-6.033773770688335</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.6257886050679147</v>
+        <v>-0.5863022196972689</v>
       </c>
       <c r="G69" t="n">
-        <v>-5.476801023195624</v>
+        <v>-5.198144449512327</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-7.59742257005203</v>
       </c>
       <c r="E70" t="n">
-        <v>-6.013598532009235</v>
+        <v>-5.842338118536616</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.5519087401320545</v>
+        <v>-0.5273083030924512</v>
       </c>
       <c r="G70" t="n">
-        <v>-5.315516944488401</v>
+        <v>-5.037096032256255</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-7.613770383924692</v>
       </c>
       <c r="E71" t="n">
-        <v>-5.915380076090606</v>
+        <v>-5.734706296874786</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.6210099145306847</v>
+        <v>-0.5981245691633476</v>
       </c>
       <c r="G71" t="n">
-        <v>-5.241034833621821</v>
+        <v>-4.982095268018163</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-7.6236323484549</v>
       </c>
       <c r="E72" t="n">
-        <v>-5.933709300069022</v>
+        <v>-5.749343491451836</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.7457271914009672</v>
+        <v>-0.7174478172628389</v>
       </c>
       <c r="G72" t="n">
-        <v>-5.085275706713806</v>
+        <v>-4.845568733984644</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-7.626010501072181</v>
       </c>
       <c r="E73" t="n">
-        <v>-5.984952573391539</v>
+        <v>-5.797496981303705</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.7869286684438791</v>
+        <v>-0.7519329429479453</v>
       </c>
       <c r="G73" t="n">
-        <v>-4.893565116202412</v>
+        <v>-4.6486343146394</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-7.620601074608079</v>
       </c>
       <c r="E74" t="n">
-        <v>-6.207534814003723</v>
+        <v>-6.028785603305638</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.6659426978834886</v>
+        <v>-0.636380278066871</v>
       </c>
       <c r="G74" t="n">
-        <v>-4.747455016488749</v>
+        <v>-4.506478090383939</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-7.605730596905692</v>
       </c>
       <c r="E75" t="n">
-        <v>-6.407009140100262</v>
+        <v>-6.237345987574334</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.00500715687851</v>
+        <v>-0.9785083359268567</v>
       </c>
       <c r="G75" t="n">
-        <v>-4.578786878978792</v>
+        <v>-4.335990122778981</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-7.581036749069404</v>
       </c>
       <c r="E76" t="n">
-        <v>-6.877402488900637</v>
+        <v>-6.718697593853234</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.9382625969913908</v>
+        <v>-0.9066054087200971</v>
       </c>
       <c r="G76" t="n">
-        <v>-4.384641120138836</v>
+        <v>-4.15840612703381</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-7.546532835472323</v>
       </c>
       <c r="E77" t="n">
-        <v>-7.316701618451914</v>
+        <v>-7.166716197097101</v>
       </c>
       <c r="F77" t="n">
-        <v>-0.997806390315561</v>
+        <v>-0.9650887255140874</v>
       </c>
       <c r="G77" t="n">
-        <v>-4.302238166053012</v>
+        <v>-4.074864142600755</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-7.503505071778919</v>
       </c>
       <c r="E78" t="n">
-        <v>-7.91004478323894</v>
+        <v>-7.753853610337147</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.050961139852969</v>
+        <v>-1.022419919658006</v>
       </c>
       <c r="G78" t="n">
-        <v>-3.940510930838963</v>
+        <v>-3.707611955587498</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-7.453162208057625</v>
       </c>
       <c r="E79" t="n">
-        <v>-8.328946104962807</v>
+        <v>-8.17605419237713</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.03830088300502</v>
+        <v>-0.9964055139114962</v>
       </c>
       <c r="G79" t="n">
-        <v>-3.779973113393717</v>
+        <v>-3.531716866908908</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-7.393839323933022</v>
       </c>
       <c r="E80" t="n">
-        <v>-8.792086317988867</v>
+        <v>-8.643541049946643</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.197202162595049</v>
+        <v>-1.181844891361704</v>
       </c>
       <c r="G80" t="n">
-        <v>-3.409591866001287</v>
+        <v>-3.161309434910794</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-7.3245157123764</v>
       </c>
       <c r="E81" t="n">
-        <v>-9.678395943465196</v>
+        <v>-9.543361931955634</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.159980745616022</v>
+        <v>-1.122274913431851</v>
       </c>
       <c r="G81" t="n">
-        <v>-3.411568803730388</v>
+        <v>-3.157146082607125</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-7.240669382031198</v>
       </c>
       <c r="E82" t="n">
-        <v>-10.44823644286153</v>
+        <v>-10.32595433431981</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.24036748506422</v>
+        <v>-1.208003312439473</v>
       </c>
       <c r="G82" t="n">
-        <v>-3.209410555551295</v>
+        <v>-2.959452309697061</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-7.139418846457666</v>
       </c>
       <c r="E83" t="n">
-        <v>-11.24710257765797</v>
+        <v>-11.13789967965513</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.364521792912308</v>
+        <v>-1.32266570072731</v>
       </c>
       <c r="G83" t="n">
-        <v>-2.866352944189547</v>
+        <v>-2.608918993412687</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-7.016510199876933</v>
       </c>
       <c r="E84" t="n">
-        <v>-12.43680013688562</v>
+        <v>-12.3343790517548</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.438362380939643</v>
+        <v>-1.401821763708386</v>
       </c>
       <c r="G84" t="n">
-        <v>-2.712191078228223</v>
+        <v>-2.462115001648413</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-6.86997156144232</v>
       </c>
       <c r="E85" t="n">
-        <v>-13.31216459718627</v>
+        <v>-13.21130149609361</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.511875661395935</v>
+        <v>-1.483151148961188</v>
       </c>
       <c r="G85" t="n">
-        <v>-2.379135986237553</v>
+        <v>-2.127672125556521</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-6.701370188054796</v>
       </c>
       <c r="E86" t="n">
-        <v>-14.46338387836208</v>
+        <v>-14.37412055758719</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.688098057645568</v>
+        <v>-1.661154098397296</v>
       </c>
       <c r="G86" t="n">
-        <v>-2.118769359624147</v>
+        <v>-1.873524342792934</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-6.514379890444297</v>
       </c>
       <c r="E87" t="n">
-        <v>-15.52168708627017</v>
+        <v>-15.44186331584416</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.731250287811897</v>
+        <v>-1.708927911466754</v>
       </c>
       <c r="G87" t="n">
-        <v>-1.702918544462402</v>
+        <v>-1.462373664351369</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-6.315124322258002</v>
       </c>
       <c r="E88" t="n">
-        <v>-16.90865946471694</v>
+        <v>-16.82480326501569</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.696778254429632</v>
+        <v>-1.685518873985748</v>
       </c>
       <c r="G88" t="n">
-        <v>-1.399857918282127</v>
+        <v>-1.148315503784044</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-6.10794351249488</v>
       </c>
       <c r="E89" t="n">
-        <v>-18.5470171500277</v>
+        <v>-18.47812545247454</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.929349922110054</v>
+        <v>-1.924152277881889</v>
       </c>
       <c r="G89" t="n">
-        <v>-1.210189727014041</v>
+        <v>-0.9514727305586924</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-5.896549748215445</v>
       </c>
       <c r="E90" t="n">
-        <v>-20.11823750636609</v>
+        <v>-20.05666440610145</v>
       </c>
       <c r="F90" t="n">
-        <v>-2.141353582026124</v>
+        <v>-2.133210169658571</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.9177993276497729</v>
+        <v>-0.654735686650971</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-5.680809341096355</v>
       </c>
       <c r="E91" t="n">
-        <v>-21.87068151863965</v>
+        <v>-21.84272945207256</v>
       </c>
       <c r="F91" t="n">
-        <v>-2.317602162881441</v>
+        <v>-2.319408900673599</v>
       </c>
       <c r="G91" t="n">
-        <v>-1.056420630137969</v>
+        <v>-0.7961456496444543</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-5.46257865826219</v>
       </c>
       <c r="E92" t="n">
-        <v>-23.53308976427066</v>
+        <v>-23.52164709158699</v>
       </c>
       <c r="F92" t="n">
-        <v>-2.416383587822264</v>
+        <v>-2.413424727380034</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.8523378134411426</v>
+        <v>-0.6029949058204696</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-5.242409304771367</v>
       </c>
       <c r="E93" t="n">
-        <v>-25.6192827605855</v>
+        <v>-25.6021842130742</v>
       </c>
       <c r="F93" t="n">
-        <v>-2.561027349617654</v>
+        <v>-2.570074130881286</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.8378053572868266</v>
+        <v>-0.5960036161029879</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-5.021169580705021</v>
       </c>
       <c r="E94" t="n">
-        <v>-27.8288707111836</v>
+        <v>-27.81920859168641</v>
       </c>
       <c r="F94" t="n">
-        <v>-2.423008293060177</v>
+        <v>-2.43979262530327</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.9484745932079371</v>
+        <v>-0.7150388335399613</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-4.801998850202963</v>
       </c>
       <c r="E95" t="n">
-        <v>-30.10001866974351</v>
+        <v>-30.09984846980657</v>
       </c>
       <c r="F95" t="n">
-        <v>-2.891765104005338</v>
+        <v>-2.9146897262812</v>
       </c>
       <c r="G95" t="n">
-        <v>-1.297174987094469</v>
+        <v>-1.068007318152896</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-4.590317831223657</v>
       </c>
       <c r="E96" t="n">
-        <v>-32.30785225176083</v>
+        <v>-32.29712965573346</v>
       </c>
       <c r="F96" t="n">
-        <v>-2.933542642373285</v>
+        <v>-2.973447981434866</v>
       </c>
       <c r="G96" t="n">
-        <v>-1.544763526134351</v>
+        <v>-1.313920042429037</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-4.392468148487677</v>
       </c>
       <c r="E97" t="n">
-        <v>-34.53426381151056</v>
+        <v>-34.51873634034027</v>
       </c>
       <c r="F97" t="n">
-        <v>-3.258467414299243</v>
+        <v>-3.315091624089708</v>
       </c>
       <c r="G97" t="n">
-        <v>-1.73051711885276</v>
+        <v>-1.507489739943957</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-4.217612118469611</v>
       </c>
       <c r="E98" t="n">
-        <v>-37.04946538734308</v>
+        <v>-37.03651709983261</v>
       </c>
       <c r="F98" t="n">
-        <v>-3.513584027473117</v>
+        <v>-3.576597281050345</v>
       </c>
       <c r="G98" t="n">
-        <v>-2.152900993132527</v>
+        <v>-1.923078709048867</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-4.067351238637126</v>
       </c>
       <c r="E99" t="n">
-        <v>-39.53941191099391</v>
+        <v>-39.54436080146807</v>
       </c>
       <c r="F99" t="n">
-        <v>-3.45922478607427</v>
+        <v>-3.517537902931318</v>
       </c>
       <c r="G99" t="n">
-        <v>-2.6079501630024</v>
+        <v>-2.379581124534172</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-3.951205088197303</v>
       </c>
       <c r="E100" t="n">
-        <v>-42.10149702330265</v>
+        <v>-42.10788606708941</v>
       </c>
       <c r="F100" t="n">
-        <v>-3.632946552481134</v>
+        <v>-3.691154930915448</v>
       </c>
       <c r="G100" t="n">
-        <v>-2.919900462812207</v>
+        <v>-2.709192940877467</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-3.859880553094241</v>
       </c>
       <c r="E101" t="n">
-        <v>-44.40061014073247</v>
+        <v>-44.39995552559039</v>
       </c>
       <c r="F101" t="n">
-        <v>-3.874355524579721</v>
+        <v>-3.941152453678207</v>
       </c>
       <c r="G101" t="n">
-        <v>-3.468363213457795</v>
+        <v>-3.273510470264386</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-3.810717998627181</v>
       </c>
       <c r="E102" t="n">
-        <v>-46.73492846050371</v>
+        <v>-46.74036176618303</v>
       </c>
       <c r="F102" t="n">
-        <v>-4.018266117415974</v>
+        <v>-4.088506322161834</v>
       </c>
       <c r="G102" t="n">
-        <v>-3.781832220397242</v>
+        <v>-3.592321136763258</v>
       </c>
     </row>
   </sheetData>
